--- a/src/source.xlsx
+++ b/src/source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shox\Documents\petpro\InvestmentProjects\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD14B10-D37A-4C97-AFE4-8EE92A18C431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CCB00-F959-40A9-B66A-06D84BC48FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
     <author>Shox</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DF6FA31C-DAB8-44AB-8468-59A82828B08C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{504EDEF5-939E-4DAC-9283-D06A7275424B}">
       <text>
         <r>
           <rPr>
@@ -858,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{33153224-BD3A-48F0-8C6E-E3A1D2111F48}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A180CD92-2B6C-48C1-822D-422FEE6D3682}">
       <text>
         <r>
           <rPr>
@@ -882,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E752E6BC-66C9-42FA-B792-3C21B13D13C3}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{725BA0DC-9FFB-47AF-986A-0C64C1BD36D8}">
       <text>
         <r>
           <rPr>
@@ -906,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3A60C9FE-7CEE-41F4-B0AE-1626BB9AFD94}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4CC49271-BDC5-4D76-B03D-5AEB223E724E}">
       <text>
         <r>
           <rPr>
@@ -930,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{864ACCA3-08D2-45DD-9916-E656BFFC54A0}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{AD262CCA-0178-4574-9B16-B546386E7B9F}">
       <text>
         <r>
           <rPr>
@@ -954,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C69AC9D-DFEF-406F-B61F-8F12A77BFF80}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A4A4698C-CDCB-4A2F-874B-8B7AFF6C3C80}">
       <text>
         <r>
           <rPr>
@@ -978,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8B75AEDD-3CA5-4686-8665-8F7CE9D5BD35}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2435D977-A787-4572-8316-6D27F1DD0876}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{CE747026-AB19-4E68-ABA9-9349CF66A83F}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A0A9DAE6-935D-4218-A5BA-1DB9C35FF1C7}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3B880189-76B8-442C-8398-26F6EFB2DA61}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{CC3B00B7-A433-4714-9DCA-80346276ED8D}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4E9ED1CA-7D10-408C-BB7B-A88228D6D9F9}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{784D0E2B-7D66-4B97-B4EA-B9161D9D9730}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CEF27280-550F-4C81-B552-246094A395EE}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{A5FFB8D9-F6EF-48B6-A060-FCB9314705CA}">
       <text>
         <r>
           <rPr>
@@ -1107,20 +1107,20 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Shox:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shox:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Этот лист не используется программой, все эти данные будут рассчитываться внутри программы.
-Оставляем этот лист, чтобы Вы видели как меняются данные в оптимистичный и пессимистичных сценариях.
+Оставляем этот лист, чтобы Вы смогли увидеть как меняются данные в оптимистичных и пессимистичных сценариях.
 </t>
         </r>
       </text>
@@ -1130,7 +1130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>sales_vol</t>
   </si>
@@ -1144,67 +1144,101 @@
     <t>production_costs</t>
   </si>
   <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>new_machine_period</t>
+  </si>
+  <si>
+    <t>price_per_unit</t>
+  </si>
+  <si>
+    <t>new_machine_price</t>
+  </si>
+  <si>
+    <t>new_machine_depreciation_period</t>
+  </si>
+  <si>
+    <t>capital_requirement_yes</t>
+  </si>
+  <si>
+    <t>capital_requirement_no</t>
+  </si>
+  <si>
+    <t>new_machine_liquidation_value</t>
+  </si>
+  <si>
+    <t>old_machine_liquidation_value</t>
+  </si>
+  <si>
+    <t>required_profitability</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>production_costs_yes</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>Инфо</t>
+  </si>
+  <si>
+    <t>Возможные сценарии</t>
+  </si>
+  <si>
+    <t>Срок службы нового оборудования (лет)</t>
+  </si>
+  <si>
+    <t>Цена един. продукции (₽)</t>
+  </si>
+  <si>
+    <t>Цена нового оборудования (₽)</t>
+  </si>
+  <si>
+    <t>Срок амортизации нового оборудования (лет)</t>
+  </si>
+  <si>
+    <t>Потребность в оборотном капитале (%) при модернизации</t>
+  </si>
+  <si>
+    <t>Потребность в оборотном капитале (%) при отказе от модернизации</t>
+  </si>
+  <si>
+    <t>Ликвидационная стоимость нового оборудования (₽)</t>
+  </si>
+  <si>
+    <t>Ликвидационная стоимость старого оборудования (₽)</t>
+  </si>
+  <si>
+    <t>Оптимистичный</t>
+  </si>
+  <si>
+    <t>Пессимистичный</t>
+  </si>
+  <si>
+    <t>Этот лист не используется программой, все эти данные будут рассчитываться внутри программы.
+Оставляем этот лист, чтобы Вы смогли увидеть как меняются данные в оптимистичных и пессимистичных сценариях.</t>
+  </si>
+  <si>
     <t>years</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>new_machine_period</t>
-  </si>
-  <si>
-    <t>price_per_unit</t>
-  </si>
-  <si>
-    <t>new_machine_price</t>
-  </si>
-  <si>
-    <t>new_machine_depreciation_period</t>
-  </si>
-  <si>
-    <t>capital_requirement_yes</t>
-  </si>
-  <si>
-    <t>capital_requirement_no</t>
-  </si>
-  <si>
-    <t>new_machine_liquidation_value</t>
-  </si>
-  <si>
-    <t>old_machine_liquidation_value</t>
-  </si>
-  <si>
-    <t>required_profitability</t>
-  </si>
-  <si>
-    <t>tax_rate</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>discount_rate</t>
-  </si>
-  <si>
-    <t>production_costs_yes</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>pess</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>possible_scenarios</t>
-  </si>
-  <si>
-    <t>Инфо</t>
   </si>
 </sst>
 </file>
@@ -1287,20 +1321,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1323,6 +1358,22 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1448,12 +1499,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,10 +1552,20 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1521,18 +1584,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1833,34 +1923,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1875,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1884,140 +1974,174 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>49500</v>
+        <v>7700</v>
       </c>
       <c r="C4" s="5">
-        <v>45000</v>
+        <v>7700</v>
       </c>
       <c r="D4" s="4">
-        <v>2250</v>
+        <v>402</v>
       </c>
       <c r="E4" s="4">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>54000</v>
+        <v>7900</v>
       </c>
       <c r="C5" s="5">
-        <v>44550</v>
+        <v>7650</v>
       </c>
       <c r="D5" s="4">
-        <v>2295</v>
+        <v>415</v>
       </c>
       <c r="E5" s="4">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>58500</v>
+        <v>8100</v>
       </c>
       <c r="C6" s="5">
-        <v>44100</v>
+        <v>7600</v>
       </c>
       <c r="D6" s="4">
-        <v>2340</v>
+        <v>429</v>
       </c>
       <c r="E6" s="4">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>63000</v>
+        <v>8400</v>
       </c>
       <c r="C7" s="5">
-        <v>43650</v>
+        <v>7750</v>
       </c>
       <c r="D7" s="4">
-        <v>2385</v>
+        <v>444</v>
       </c>
       <c r="E7" s="4">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>63000</v>
+        <v>8700</v>
       </c>
       <c r="C8" s="5">
-        <v>43200</v>
+        <v>7500</v>
       </c>
       <c r="D8" s="4">
-        <v>2430</v>
+        <v>455</v>
       </c>
       <c r="E8" s="4">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>63000</v>
+        <v>8900</v>
       </c>
       <c r="C9" s="5">
-        <v>42750</v>
+        <v>7450</v>
       </c>
       <c r="D9" s="4">
-        <v>2475</v>
+        <v>467</v>
       </c>
       <c r="E9" s="4">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>63000</v>
+        <v>9200</v>
       </c>
       <c r="C10" s="5">
-        <v>42300</v>
+        <v>7400</v>
       </c>
       <c r="D10" s="4">
-        <v>2520</v>
+        <v>479</v>
       </c>
       <c r="E10" s="4">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="5">
-        <v>63000</v>
+        <v>9500</v>
       </c>
       <c r="C11" s="5">
-        <v>41850</v>
+        <v>7350</v>
       </c>
       <c r="D11" s="4">
-        <v>2565</v>
+        <v>491</v>
       </c>
       <c r="E11" s="4">
-        <v>3150</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9800</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7300</v>
+      </c>
+      <c r="D12" s="4">
+        <v>506</v>
+      </c>
+      <c r="E12" s="4">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10100</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7250</v>
+      </c>
+      <c r="D13" s="4">
+        <v>521</v>
+      </c>
+      <c r="E13" s="4">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -2036,96 +2160,96 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10">
-        <v>2740</v>
+        <v>740</v>
       </c>
       <c r="D2" s="11">
-        <v>16000000</v>
+        <v>7500000</v>
       </c>
       <c r="E2" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="10">
         <v>0.04</v>
       </c>
       <c r="G2" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="11">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="I2" s="11">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J2" s="10">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="10">
         <v>0.2</v>
@@ -2135,7 +2259,7 @@
       </c>
       <c r="M2" s="12">
         <f>J2+L2+(J2*L2)</f>
-        <v>0.29800000000000004</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2149,99 +2273,100 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:10" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="15">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="C3" s="16">
         <v>0.05</v>
       </c>
       <c r="D3" s="16">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="16">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="F3" s="16">
-        <v>-0.06</v>
+        <v>-0.2</v>
       </c>
       <c r="G3" s="16">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="16">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>7</v>
+        <f>source_1!A2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2251,21 +2376,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:J3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:J3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:J3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2273,73 +2383,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CF3994-3666-459F-BB55-5F86B0C6665B}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
+      <c r="B1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="B2">
         <f>source_1!B2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
         <f>source_1!C2+(source_1!C2*source_2!C3)</f>
-        <v>2877</v>
-      </c>
-      <c r="D2" s="18">
+        <v>777</v>
+      </c>
+      <c r="D2" s="17">
         <f>source_1!D2</f>
-        <v>16000000</v>
+        <v>7500000</v>
       </c>
       <c r="E2">
         <f>source_1!E2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <f>source_1!F2</f>
@@ -2347,36 +2457,36 @@
       </c>
       <c r="G2">
         <f>source_1!G2</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H2" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="H2" s="17">
         <f>source_1!H2+source_1!H2*source_2!G3</f>
-        <v>2120000</v>
-      </c>
-      <c r="I2" s="18">
+        <v>550000</v>
+      </c>
+      <c r="I2" s="17">
         <f>source_1!I2</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <f>source_1!B2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <f>source_1!C2+(source_1!C2*source_2!B3)</f>
-        <v>2657.8</v>
-      </c>
-      <c r="D3" s="18">
+        <v>703</v>
+      </c>
+      <c r="D3" s="17">
         <f>source_1!D2</f>
-        <v>16000000</v>
+        <v>7500000</v>
       </c>
       <c r="E3">
         <f>source_1!E2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f>source_1!F2</f>
@@ -2384,23 +2494,63 @@
       </c>
       <c r="G3">
         <f>source_1!G2</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H3" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="17">
         <f>source_1!H2+source_1!H2*source_2!F3</f>
-        <v>1880000</v>
-      </c>
-      <c r="I3" s="18">
+        <v>400000</v>
+      </c>
+      <c r="I3" s="17">
         <f>source_1!I2</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>24</v>
-      </c>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
